--- a/Bibliotecas/openpyxl/balance.xlsx
+++ b/Bibliotecas/openpyxl/balance.xlsx
@@ -1,100 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/89c7e4be0f76d59e/Documentos/GitHub/Guia-definitivo-do-Python-para-Windows/Bibliotecas/openpyxl/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_116F56E4DCE6354112AA8F43F9385EE8C256EB53" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8187C415-93B3-4BE1-8D50-CEEB7501471E}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14808" yWindow="1308" windowWidth="7980" windowHeight="7752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5904" yWindow="1740" windowWidth="14796" windowHeight="9480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Score" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Score" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Balance</t>
-  </si>
-  <si>
-    <t>Double Balance</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Bauhaus 93"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FFF39C12"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Bauhaus 93"/>
+      <b val="1"/>
+      <color rgb="FF1F618D"/>
+      <sz val="14"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6C3483"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="FFABEBC6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FF17202A"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF57C00"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF57C00"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFF57C00"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF57C00"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFF57C00"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF57C00"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -103,28 +112,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -144,7 +216,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -156,7 +228,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -203,23 +275,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,23 +310,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,188 +461,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="12.88671875" customWidth="1" min="2" max="2"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Balance</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>Double Balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>42000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5" t="n">
         <v>84000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+    <row r="3" ht="21" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Gabriel</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>1200</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6" t="n">
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="4" ht="21" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kane</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>1500</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="5" ht="21" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>1400</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>2800</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6" ht="21" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>560</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>1120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7" ht="21" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="n">
         <v>780</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>1560</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    <row r="8" ht="21" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>920</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>1840</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>Soma</t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B2:B9)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kane</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tim</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Robin</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>